--- a/files/MonthlyBudget-01.xlsx
+++ b/files/MonthlyBudget-01.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57de5c48f32aaca3/OfficeNewb/Videos/MicrosoftOffice/Excel101/Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan.patel\Documents\Forge\Microsoft-Excel\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F29C06-F4FE-424C-9115-A1EB1A339895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MONTHLY BUDGET" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,21 +389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -411,7 +423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -433,7 +445,7 @@
         <v>0.61172472387425658</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -455,7 +467,7 @@
         <v>0.12744265080713679</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -477,7 +489,7 @@
         <v>6.7119796091758707E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -499,7 +511,7 @@
         <v>0.15293118096856415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -521,7 +533,7 @@
         <v>4.0781648258283773E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -546,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -567,7 +579,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -588,7 +600,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
